--- a/158.xlsx
+++ b/158.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squir\Desktop\数据\0 1 label 155-192\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E006220F-378C-4D1C-8EB8-09BA8F9EAA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2019F60-F457-4344-9860-AE176A851282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="7068" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="132" windowWidth="4596" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6555,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A2041" workbookViewId="0">
+      <selection activeCell="B2066" sqref="B2066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16586,7 +16586,7 @@
         <v>1253</v>
       </c>
       <c r="B1253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
@@ -16962,7 +16962,7 @@
         <v>1300</v>
       </c>
       <c r="B1300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
@@ -17162,7 +17162,7 @@
         <v>1325</v>
       </c>
       <c r="B1325" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
         <v>1402</v>
       </c>
       <c r="B1402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
@@ -19242,7 +19242,7 @@
         <v>1585</v>
       </c>
       <c r="B1585" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
@@ -19506,7 +19506,7 @@
         <v>1618</v>
       </c>
       <c r="B1618" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
@@ -22602,7 +22602,7 @@
         <v>2005</v>
       </c>
       <c r="B2005" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
@@ -22994,7 +22994,7 @@
         <v>2054</v>
       </c>
       <c r="B2054" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
@@ -23018,7 +23018,7 @@
         <v>2057</v>
       </c>
       <c r="B2057" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
@@ -23058,7 +23058,7 @@
         <v>2062</v>
       </c>
       <c r="B2062" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
@@ -23082,7 +23082,7 @@
         <v>2065</v>
       </c>
       <c r="B2065" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
@@ -23090,7 +23090,7 @@
         <v>2066</v>
       </c>
       <c r="B2066" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
